--- a/results/unswbn15-lstm-results.xlsx
+++ b/results/unswbn15-lstm-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,11 +799,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>dstip-dport</t>
+          <t>srcip-dport</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -812,28 +812,28 @@
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>26306</v>
+        <v>26225</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7628297726754353</v>
+        <v>0.8170066730219256</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7593047034764826</v>
+        <v>0.8147171121138493</v>
       </c>
       <c r="J8" t="n">
-        <v>0.767273977311791</v>
+        <v>0.8197969543147208</v>
       </c>
       <c r="K8" t="n">
-        <v>0.804434173467177</v>
+        <v>0.8463868455214193</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7165904165663376</v>
+        <v>0.7840440165061898</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7812182207104533</v>
+        <v>0.8302500795868558</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7410666113301516</v>
+        <v>0.8015219818851069</v>
       </c>
     </row>
     <row r="9">
@@ -847,11 +847,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dstip-dport</t>
+          <t>srcip-dport</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>600</v>
@@ -860,28 +860,28 @@
         <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>25956</v>
+        <v>26143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.778008938203113</v>
+        <v>0.78238916727231</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8295036445678584</v>
+        <v>0.7651824665881864</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7137910137650419</v>
+        <v>0.8036233122543155</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7832841691248771</v>
+        <v>0.8278393766856458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7704887393701523</v>
+        <v>0.7349745994529113</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8057316250842887</v>
+        <v>0.7952787074022094</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7410569836419197</v>
+        <v>0.7677674817324571</v>
       </c>
     </row>
     <row r="10">
@@ -895,11 +895,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dstip-dport</t>
+          <t>srcip-dport</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>1200</v>
@@ -908,28 +908,28 @@
         <v>120</v>
       </c>
       <c r="G10" t="n">
-        <v>25563</v>
+        <v>25658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7559754332433596</v>
+        <v>0.8032972172421857</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7293773098110313</v>
+        <v>0.7683560297627404</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7899661379433256</v>
+        <v>0.8469155275148966</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8161036123897948</v>
+        <v>0.8623650831166785</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6955123175898321</v>
+        <v>0.7454685692248361</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7703070918329774</v>
+        <v>0.8126508036675452</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7397363150867824</v>
+        <v>0.7929605775936334</v>
       </c>
     </row>
     <row r="11">
@@ -943,11 +943,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>dstip-dport</t>
+          <t>srcip-dport</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>1800</v>
@@ -956,28 +956,28 @@
         <v>180</v>
       </c>
       <c r="G11" t="n">
-        <v>24957</v>
+        <v>25386</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7744921264575069</v>
+        <v>0.7883479082959112</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8265055008685582</v>
+        <v>0.7235583684950774</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7099901265595548</v>
+        <v>0.8708579616693534</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7794539249146758</v>
+        <v>0.8770778279771545</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7674396041525177</v>
+        <v>0.712120102526547</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8022904517670204</v>
+        <v>0.7929559554545104</v>
       </c>
       <c r="N11" t="n">
-        <v>0.737597911227154</v>
+        <v>0.7835300753394303</v>
       </c>
     </row>
     <row r="12">
@@ -991,11 +991,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>dstip-dport</t>
+          <t>srcip-dport</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>2400</v>
@@ -1004,28 +1004,28 @@
         <v>240</v>
       </c>
       <c r="G12" t="n">
-        <v>24636</v>
+        <v>24516</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7797532066893976</v>
+        <v>0.8159977157774515</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8191830780452225</v>
+        <v>0.8280643770656704</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7302764049057294</v>
+        <v>0.8001509718814871</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7921427563831288</v>
+        <v>0.8447555522978817</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7629565882577931</v>
+        <v>0.7799135473190472</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8054360298336202</v>
+        <v>0.8363266935162006</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7462588851477742</v>
+        <v>0.7899026594010525</v>
       </c>
     </row>
     <row r="13">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dstip-dport</t>
+          <t>srcip-dport</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>3000</v>
@@ -1052,28 +1052,6364 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
+        <v>24258</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.786379751009976</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7607978294346264</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8192260615761228</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8438389589263928</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7273259215915741</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8001696745333949</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.7705455189514702</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>300</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>26216</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8259078425389076</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8340337581811919</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8158277070335869</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8488885772386228</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7984943538268507</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8413956074506532</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8070679742982754</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>600</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" t="n">
+        <v>26468</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8106770439776334</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.821166128699952</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7978500041992106</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8324282929546087</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.7848645076007931</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8267588591184097</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7913039856732331</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F16" t="n">
+        <v>120</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25615</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8137029084520788</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8282243254696992</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.795758051846033</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.833641404805915</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.7894189973157849</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8309240362811792</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.7925758497783186</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F17" t="n">
+        <v>180</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25126</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5927326275571122</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5903683123174468</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5957254937325277</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6489428347689898</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5346390417610878</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6182713470362219</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5635316698656431</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F18" t="n">
+        <v>240</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24652</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8154307966899237</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8267261556465769</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8013661202185792</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8382527439928804</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7878760744985673</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8324495507438504</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.7945638432364097</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24267</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8291506984794165</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8283767946088485</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8301460197833255</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8624923733984137</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.789959659345585</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8450904199671201</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8095544327055582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>300</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26222</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4947372435359622</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2470930232558139</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7986240869712927</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.6009089378892443</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4636359153887875</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.350188827308843</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5866791452191545</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>600</v>
+      </c>
+      <c r="F21" t="n">
+        <v>60</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26154</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7881012464632561</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.726297081140201</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8665509761388286</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.873550933157938</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7138160245872347</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7931472081218275</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.782802947170403</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F22" t="n">
+        <v>120</v>
+      </c>
+      <c r="G22" t="n">
+        <v>25618</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8213365602310875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7831009836529615</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8683729433272395</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8797901097153761</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7649539877300614</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8286345426635217</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8133893260488442</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F23" t="n">
+        <v>180</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24981</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5699531644049478</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5521810758541652</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5924682395644283</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6318852459016393</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5108363977779516</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5893505599938841</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5486324104029243</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F24" t="n">
+        <v>240</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24631</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8138118630993464</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8695338952525035</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.7418604651162791</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8130683731896261</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.8149397097894951</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8403536865557334</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7766848461238801</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24055</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8143005612138848</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8478036556603774</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7709545151139506</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8272563825961884</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7965517241379311</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8374039966512576</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.7835441197848524</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>300</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26330</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7833270034181542</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8415915915915916</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7102243534851859</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7846643334393891</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7813471502590673</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8121315902130601</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.7440900731171219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>600</v>
+      </c>
+      <c r="F27" t="n">
+        <v>60</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7925</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8499861610849709</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.720557672324212</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7919540970923861</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.7933072742873486</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8199445983379501</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.7551844624948949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F28" t="n">
+        <v>120</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25647</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7629742270051079</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7512015044925821</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7779450841452613</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8113903099608787</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7108862808579522</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.7801367138052009</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7429054768449989</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F29" t="n">
+        <v>180</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25051</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7798890263861722</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.834328036240742</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.7119526202440776</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7832984540606224</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.7749560461027545</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8080083565459609</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7421195397998317</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F30" t="n">
+        <v>240</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24699</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7855783634964978</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8322430585840965</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7268988209487249</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7930461282726139</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.775070655881493</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8121719392821676</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7502122441279125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>300</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24312</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7831112207963146</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8051919561243145</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7547240763373132</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8084434654919237</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.7508417508417509</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8068144348781828</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7527779080125649</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>300</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>26226</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8258979638526653</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.7878172588832487</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8311793214862682</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.8189973614775725</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8439614517121181</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8031047865459249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>600</v>
+      </c>
+      <c r="F33" t="n">
+        <v>60</v>
+      </c>
+      <c r="G33" t="n">
+        <v>26144</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7923424112607099</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7579975072704611</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8347291061357033</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.849856377610434</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7364849581542637</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8013029315960911</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7825355497696777</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F34" t="n">
+        <v>120</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25659</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8222066331501617</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8309117708991367</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8113389414651244</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8461153598742048</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.7935378813849846</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8384446490544656</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8023396880415945</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F35" t="n">
+        <v>180</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25386</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8168675647994957</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8137130801687764</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8208848289450117</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8526269250607914</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7757934828607702</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8327156273613759</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.797702449849876</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F36" t="n">
+        <v>240</v>
+      </c>
+      <c r="G36" t="n">
+        <v>24516</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8119187469407734</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8105331225750826</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8137384412153237</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8510750660128253</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7658289672320397</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8303094983991463</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7890571389359073</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>300</v>
+      </c>
+      <c r="G37" t="n">
+        <v>24257</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8034381827925959</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7798474625990026</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8337256378872046</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8575806451612903</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7468162267015265</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8168689506836687</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.787881484117804</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>300</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" t="n">
+        <v>26216</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8214449191333537</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8554598691009301</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7792496367831809</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8278</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8129457917261056</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8414026766051161</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.7957411528559585</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>600</v>
+      </c>
+      <c r="F39" t="n">
+        <v>60</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26468</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8293033096569442</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8209600988943067</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8395061728395061</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8621709340064911</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.793144489407284</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8410610004925068</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8156670746634026</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F40" t="n">
+        <v>120</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25615</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8272496584032794</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.853227857041955</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7951470716592476</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.837318915921536</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.8142652842331068</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8451985306979185</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8045926253035989</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F41" t="n">
+        <v>180</v>
+      </c>
+      <c r="G41" t="n">
+        <v>25125</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8290945273631841</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7873568401118225</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8369069027528012</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.8185056716977595</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8493016073559346</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.802629159772017</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F42" t="n">
+        <v>240</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24652</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8327924711990914</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8383557636044471</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8258652094717669</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8570360400777628</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.8040432700833481</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8475929897212157</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8148081588642286</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>300</v>
+      </c>
+      <c r="G43" t="n">
+        <v>24267</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8358264309556187</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8288895399941401</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8447479981158738</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8728787411292811</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.7933292046359374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8503155996393147</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8182315904735834</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>300</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26222</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8019983220196781</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.7792774086378738</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8298793952777306</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8489669733071935</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.7539351851851852</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8126308191988453</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7900865205789601</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>600</v>
+      </c>
+      <c r="F45" t="n">
+        <v>60</v>
+      </c>
+      <c r="G45" t="n">
+        <v>26154</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8245010323468686</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8941144302413015</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7361388286334056</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8113640593015322</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.8456094886873318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8507317073170733</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.7870860005566378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F46" t="n">
+        <v>120</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25617</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8330795955810595</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8646238765833982</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.7942712867839109</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8379397846512585</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.8266582094961943</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8510727222067428</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.8101411952757304</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F47" t="n">
+        <v>180</v>
+      </c>
+      <c r="G47" t="n">
+        <v>24982</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8182691537907293</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8298116180789342</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8036475818891208</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8426067350352753</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.7884803703373987</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8361602309635512</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.7959917318234924</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F48" t="n">
+        <v>240</v>
+      </c>
+      <c r="G48" t="n">
+        <v>24631</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8119036985912063</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8322887400043224</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.7855813953488372</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8336700822629528</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.7839042049568365</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.832978838458488</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.784741904009664</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>300</v>
+      </c>
+      <c r="G49" t="n">
+        <v>24055</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.7958844315111203</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7549380896226415</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8488604939448842</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8659959418329388</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.7280608489408685</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8066624665301623</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.7838337589152065</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>300</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30</v>
+      </c>
+      <c r="G50" t="n">
+        <v>39494</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.771661518205297</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.810442625999628</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.7252863338151896</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.7791435723225461</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.7618852937740919</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7944849589790337</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.7431354676996696</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>600</v>
+      </c>
+      <c r="F51" t="n">
+        <v>60</v>
+      </c>
+      <c r="G51" t="n">
+        <v>38999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.7659939998461499</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8022297170695147</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.722168715653504</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.7773944620971402</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.751193352584124</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7896168564710222</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.7363951473136915</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F52" t="n">
+        <v>120</v>
+      </c>
+      <c r="G52" t="n">
+        <v>38469</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.7717902726870987</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7869842018391888</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.7531278962001854</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.796563245823389</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.7421656487242423</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.791744751512276</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.747606589425869</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F53" t="n">
+        <v>180</v>
+      </c>
+      <c r="G53" t="n">
+        <v>37576</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.7697466467958272</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7943762682384772</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7395425998341035</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.7890392552068337</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.7457282829489784</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7916987673343605</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.7426225606853879</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F54" t="n">
+        <v>240</v>
+      </c>
+      <c r="G54" t="n">
+        <v>37048</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7698931116389549</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7900555200707512</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7453129679544774</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7908715325595121</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.744376645130414</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7904633157183237</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.7448445122863728</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>300</v>
+      </c>
+      <c r="G55" t="n">
+        <v>36467</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.7690514711931336</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.7843495433226364</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.7499383172958303</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.7967002657840629</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.7356892169914074</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.7904766643447109</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.742745433441261</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>300</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30</v>
+      </c>
+      <c r="G56" t="n">
+        <v>39338</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8090396054705374</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8308961379827522</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.7831352071992</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8195266272189349</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.7962272675929064</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8251722211878607</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.7896269743474852</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E57" t="n">
+        <v>600</v>
+      </c>
+      <c r="F57" t="n">
+        <v>60</v>
+      </c>
+      <c r="G57" t="n">
+        <v>39215</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.7997194950911641</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8105415770274063</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.786743677451915</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8200529951736538</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.7759526574857585</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8152695455828394</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.781310909394665</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F58" t="n">
+        <v>120</v>
+      </c>
+      <c r="G58" t="n">
+        <v>38487</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8150804167641021</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8266307939205135</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8009363620599965</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8356635014553609</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.7904734740444952</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8311226063640461</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.7956705233843415</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>50</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F59" t="n">
+        <v>180</v>
+      </c>
+      <c r="G59" t="n">
+        <v>38078</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8090761069383896</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8093757361601884</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8086987479973892</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8419840219575553</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.7710891089108911</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8253579321610454</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.7894462465245597</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>50</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F60" t="n">
+        <v>240</v>
+      </c>
+      <c r="G60" t="n">
+        <v>36773</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8031708046664673</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8059723376179072</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.7996566944580676</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8346070145250266</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.7666627483249089</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8200397812033815</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.7828122186881113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>300</v>
+      </c>
+      <c r="G61" t="n">
+        <v>36385</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8063762539508039</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8150406504065041</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.795596126565102</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.8322450012655024</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.7756464221286831</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.823552984196158</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.7854946259476905</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" t="n">
+        <v>300</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30</v>
+      </c>
+      <c r="G62" t="n">
+        <v>39323</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8229280573710043</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8362331754443558</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.8071666666666667</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.837057553281382</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.8062260695854836</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8366451612903226</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8066960939451986</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>600</v>
+      </c>
+      <c r="F63" t="n">
+        <v>60</v>
+      </c>
+      <c r="G63" t="n">
+        <v>39701</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8258482154101912</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8320381986705365</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8186378755657342</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8423696682464455</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.8071071447771625</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8371720597239886</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8128316188413645</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F64" t="n">
+        <v>120</v>
+      </c>
+      <c r="G64" t="n">
+        <v>38421</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8242107180968741</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8617173353664348</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.779065098938916</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.824398249452954</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.8239611768274189</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8426447975397231</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.8008844339622642</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F65" t="n">
+        <v>180</v>
+      </c>
+      <c r="G65" t="n">
+        <v>37687</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8306843208533446</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8364928909952607</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8236227879357987</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8521949056510815</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8055779183438758</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8442708968883467</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8145004215238816</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F66" t="n">
+        <v>240</v>
+      </c>
+      <c r="G66" t="n">
+        <v>36978</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.8311969279030775</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.8290383096366508</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.8338117450065782</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.8580114449213162</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.8010456164540963</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.8432760871748518</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.8171003281762776</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>300</v>
+      </c>
+      <c r="G67" t="n">
+        <v>36400</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.825521978021978</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.8470448470448471</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.798678849240647</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.8399352083640111</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.80720034941037</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.8434750462107209</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.8029169899146625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>300</v>
+      </c>
+      <c r="F68" t="n">
+        <v>30</v>
+      </c>
+      <c r="G68" t="n">
+        <v>39333</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.8307019551013144</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.8829662330343305</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.7690133037694014</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8185736677115988</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.8477238007943783</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.849551523914959</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.8064525505013806</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>600</v>
+      </c>
+      <c r="F69" t="n">
+        <v>60</v>
+      </c>
+      <c r="G69" t="n">
+        <v>39230</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8263828702523579</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.7934272300469484</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.8663995033019134</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.8782156822391438</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.7754875214711529</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.8336711519206818</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.8184265948655061</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F70" t="n">
+        <v>120</v>
+      </c>
+      <c r="G70" t="n">
+        <v>38425</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8312036434612883</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8116938950988822</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.8545537705105483</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.8697788697788698</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.7913071099581768</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.8397331356560415</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.8217152281473339</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F71" t="n">
+        <v>180</v>
+      </c>
+      <c r="G71" t="n">
+        <v>37472</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.8233881298035867</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.8555246232120572</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.7831470128621228</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8316536020903322</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8123441396508728</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.843420243221502</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.7974784258522555</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>200</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F72" t="n">
+        <v>240</v>
+      </c>
+      <c r="G72" t="n">
+        <v>36946</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8286688680777351</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.7675497497253083</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.825720823798627</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8329358770535241</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8507568255764606</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.798907173263867</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>srcip-dport</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F73" t="n">
+        <v>300</v>
+      </c>
+      <c r="G73" t="n">
+        <v>36082</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8203536389335403</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.8413642673012096</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.7937146448774356</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.8379579342352128</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.7978266363406621</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8396576460693613</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.795765328628143</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20</v>
+      </c>
+      <c r="E74" t="n">
+        <v>300</v>
+      </c>
+      <c r="F74" t="n">
+        <v>30</v>
+      </c>
+      <c r="G74" t="n">
+        <v>26306</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.7628297726754353</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.7593047034764826</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.767273977311791</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.804434173467177</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.7165904165663376</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7812182207104533</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.7410666113301516</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>600</v>
+      </c>
+      <c r="F75" t="n">
+        <v>60</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25956</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.778008938203113</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.8295036445678584</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.7137910137650419</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.7832841691248771</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.7704887393701523</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.8057316250842887</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.7410569836419197</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F76" t="n">
+        <v>120</v>
+      </c>
+      <c r="G76" t="n">
+        <v>25563</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.7559754332433596</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.7293773098110313</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.7899661379433256</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.8161036123897948</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.6955123175898321</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.7703070918329774</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.7397363150867824</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F77" t="n">
+        <v>180</v>
+      </c>
+      <c r="G77" t="n">
+        <v>24957</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.7744921264575069</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.8265055008685582</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.7099901265595548</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.7794539249146758</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.7674396041525177</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.8022904517670204</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.737597911227154</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F78" t="n">
+        <v>240</v>
+      </c>
+      <c r="G78" t="n">
+        <v>24636</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.7797532066893976</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.8191830780452225</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.7302764049057294</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.7921427563831288</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.7629565882577931</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.8054360298336202</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.7462588851477742</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>300</v>
+      </c>
+      <c r="G79" t="n">
         <v>24212</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H79" t="n">
         <v>0.7894845531141582</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I79" t="n">
         <v>0.8279246941615999</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J79" t="n">
         <v>0.7397973676735158</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K79" t="n">
         <v>0.8044128113879003</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L79" t="n">
         <v>0.7688447156071639</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M79" t="n">
         <v>0.8159994224035233</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N79" t="n">
         <v>0.7540414032717271</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>50</v>
+      </c>
+      <c r="E80" t="n">
+        <v>300</v>
+      </c>
+      <c r="F80" t="n">
+        <v>30</v>
+      </c>
+      <c r="G80" t="n">
+        <v>26165</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8102044716223963</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.7769674237688408</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.8508667573079538</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.8643845143342864</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.757183908045977</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8183480869119906</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.8012964148527528</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>50</v>
+      </c>
+      <c r="E81" t="n">
+        <v>600</v>
+      </c>
+      <c r="F81" t="n">
+        <v>60</v>
+      </c>
+      <c r="G81" t="n">
+        <v>26107</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.7966062741793388</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.7956057665650125</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.7978422810172103</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.829407514450867</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.7595989239422842</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8121550870241969</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.778251064896016</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>50</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F82" t="n">
+        <v>120</v>
+      </c>
+      <c r="G82" t="n">
+        <v>25631</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8004369708556045</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7460362003648099</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.8685945328293926</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.8767416934619507</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.7318915716190194</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8061251563506804</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.7944049198118895</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>50</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F83" t="n">
+        <v>180</v>
+      </c>
+      <c r="G83" t="n">
+        <v>25309</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8003872140345332</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7754078677872731</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.8321076233183856</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.8543304023033227</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.7447423342430567</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8129581636430951</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.7860047441545239</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>50</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F84" t="n">
+        <v>240</v>
+      </c>
+      <c r="G84" t="n">
+        <v>24490</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.800204164965292</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.7601552951326479</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.8528494471222001</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.8716405605935696</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.7300970873786408</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8120895579707361</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.7867137439518765</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>50</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>300</v>
+      </c>
+      <c r="G85" t="n">
+        <v>24253</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.7959840019791365</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7717574602243567</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.8271151309591106</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.8515492274087857</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.7382273797510932</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.8096923076923077</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.7801475162178975</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>100</v>
+      </c>
+      <c r="E86" t="n">
+        <v>300</v>
+      </c>
+      <c r="F86" t="n">
+        <v>30</v>
+      </c>
+      <c r="G86" t="n">
+        <v>26142</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.7991354907811185</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.785768671696546</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.8156477126977341</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.8403908794788274</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.7550261199936679</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8121624038633519</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.7841670434460931</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" t="n">
+        <v>600</v>
+      </c>
+      <c r="F87" t="n">
+        <v>60</v>
+      </c>
+      <c r="G87" t="n">
+        <v>26454</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8210856581235352</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.8490786578657866</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.7869017632241814</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.8295156848256868</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8102360162531339</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8391831742040706</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.7983984325084126</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>100</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F88" t="n">
+        <v>120</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25600</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.7965234375</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.7694970330601865</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.829954561342188</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.8484305631279695</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.7442990361256955</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.8070383404334136</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.7847965296426358</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>100</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F89" t="n">
+        <v>180</v>
+      </c>
+      <c r="G89" t="n">
+        <v>25084</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8095598788072078</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.7908785953893369</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.8331978686896053</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.857131806930693</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.7589667653833498</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8226734474182411</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.7943518877265487</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F90" t="n">
+        <v>240</v>
+      </c>
+      <c r="G90" t="n">
+        <v>24646</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.7540777408098678</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.7287937458902608</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.7856556255132767</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.8093962999026291</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.6987502028891414</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7669831994156319</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.7396589493578455</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>100</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>300</v>
+      </c>
+      <c r="G91" t="n">
+        <v>24270</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8017717346518335</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.8117854001759015</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.7889139845661585</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.8315939635107741</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.7655008675006849</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8215703000407967</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.7770310979283497</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>200</v>
+      </c>
+      <c r="E92" t="n">
+        <v>300</v>
+      </c>
+      <c r="F92" t="n">
+        <v>30</v>
+      </c>
+      <c r="G92" t="n">
+        <v>26195</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.5562511929757588</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.4894561598224195</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.6379998302062994</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.623321554770318</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.5052100840336134</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5483369599005284</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.563892849103324</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>200</v>
+      </c>
+      <c r="E93" t="n">
+        <v>600</v>
+      </c>
+      <c r="F93" t="n">
+        <v>60</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26126</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.7988210977570237</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.7537902174658709</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.8556584985713048</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.8682734097194784</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.7335758295597952</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8069917743830788</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.7899280575539569</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>200</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F94" t="n">
+        <v>120</v>
+      </c>
+      <c r="G94" t="n">
+        <v>25566</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8217554564656184</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.8153562304853817</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.8296147812445529</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.8545927854220901</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.7853312432967577</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8345135635690164</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.806865861411316</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>200</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F95" t="n">
+        <v>180</v>
+      </c>
+      <c r="G95" t="n">
+        <v>24861</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8104259683842162</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.7893713545042126</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.8370694368507381</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.859764705882353</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.7584840227891999</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.823065660547359</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.7958414554905783</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>200</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F96" t="n">
+        <v>240</v>
+      </c>
+      <c r="G96" t="n">
+        <v>24579</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.818056064119777</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.8132573571840739</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.8242650489967336</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.8568931448548411</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.7733123194116102</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8345052179705426</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7979761474521142</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>60-20-20</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>200</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>300</v>
+      </c>
+      <c r="G97" t="n">
+        <v>24009</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8198592194593693</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8132960318044614</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.8284097448685978</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.8606263633530695</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.7730242549002059</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8362920625307544</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.7997592481133386</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20</v>
+      </c>
+      <c r="E98" t="n">
+        <v>300</v>
+      </c>
+      <c r="F98" t="n">
+        <v>30</v>
+      </c>
+      <c r="G98" t="n">
+        <v>26306</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.7933931422489165</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.8420586230402182</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.7320385012031626</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.7984616379031737</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.7861559760036917</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.819680833416277</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.7581327043745271</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+      <c r="E99" t="n">
+        <v>600</v>
+      </c>
+      <c r="F99" t="n">
+        <v>60</v>
+      </c>
+      <c r="G99" t="n">
+        <v>25956</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.7903760209585452</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.836445678583825</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.7329235564020431</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.7961543544337254</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.7822953243393088</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.8158028369274518</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.7568050775488312</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F100" t="n">
+        <v>120</v>
+      </c>
+      <c r="G100" t="n">
+        <v>25563</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.7715839298986817</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7736559514678195</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7689360185350205</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.8105639976621859</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.7266526315789473</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.7916800456669879</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.7471966056197775</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F101" t="n">
+        <v>180</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24958</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.7825146245692763</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.8559021495259463</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.6914998653621758</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.7748149118783988</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.7946364105208871</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8133425034387897</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.7394893453637936</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F102" t="n">
+        <v>240</v>
+      </c>
+      <c r="G102" t="n">
+        <v>24636</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.7834063971423932</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.812837345003647</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.7464762950759656</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.8009199367543481</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.7606789778026488</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.8068346365479293</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.7535107169253511</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>300</v>
+      </c>
+      <c r="G103" t="n">
+        <v>24212</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.776309268131505</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.7924694161599882</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7554208881734684</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.8072531900604433</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.7379520858384978</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.799792991276061</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.7465843159273817</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>50</v>
+      </c>
+      <c r="E104" t="n">
+        <v>300</v>
+      </c>
+      <c r="F104" t="n">
+        <v>30</v>
+      </c>
+      <c r="G104" t="n">
+        <v>26165</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.8260653544811771</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.820518163506286</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.8328518014955812</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.8572568940493469</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.7913605167541381</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.8384852894204493</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.8115762017140727</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>50</v>
+      </c>
+      <c r="E105" t="n">
+        <v>600</v>
+      </c>
+      <c r="F105" t="n">
+        <v>60</v>
+      </c>
+      <c r="G105" t="n">
+        <v>26107</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.8146857164745087</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.8560438037149987</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.7635927733538831</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.817297511911064</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.8110959527057754</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.8362220717670954</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.7866278556937462</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>50</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F106" t="n">
+        <v>120</v>
+      </c>
+      <c r="G106" t="n">
+        <v>25631</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.8227536966954079</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.8248912585940789</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.8200755911048607</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.8517203911626222</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.7889396245560629</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.8380911650450835</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.8042063526268155</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F107" t="n">
+        <v>180</v>
+      </c>
+      <c r="G107" t="n">
+        <v>25309</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.8163894266861591</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.8037290769122113</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.8324663677130045</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.8589975845410628</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.7695879280325014</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.8304447768818185</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7997932014992891</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>50</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F108" t="n">
+        <v>240</v>
+      </c>
+      <c r="G108" t="n">
+        <v>24491</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.8104201543424115</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.7856937455068296</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.8429259994329459</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.8680009530617108</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.7494957983193278</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.824799064186257</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7934700413682666</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>50</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F109" t="n">
+        <v>300</v>
+      </c>
+      <c r="G109" t="n">
+        <v>24254</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.8163189576976994</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.8013196480938416</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.8355944978330507</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.86232741617357</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.765955609292685</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.8307049211476344</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.7992610282521516</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>100</v>
+      </c>
+      <c r="E110" t="n">
+        <v>300</v>
+      </c>
+      <c r="F110" t="n">
+        <v>30</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26142</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.8237319256369061</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.8464040977365543</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7957246686618213</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.836560169665458</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.8074620390455531</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.8414533443435178</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.8015503875968992</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>600</v>
+      </c>
+      <c r="F111" t="n">
+        <v>60</v>
+      </c>
+      <c r="G111" t="n">
+        <v>26454</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.821161261056929</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.8202695269526953</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.8222502099076406</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.8492916637004343</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.7893124848875634</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.8345283480815641</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.8054447505860097</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F112" t="n">
+        <v>120</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25600</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.830390625</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.8584345860412546</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.7957008039147151</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.8386473429951691</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.8196219621962196</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.8484256091600921</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.8074842599982265</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F113" t="n">
+        <v>180</v>
+      </c>
+      <c r="G113" t="n">
+        <v>25083</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.8207550930909381</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.8551034975017845</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7772961257111893</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.8292953066592829</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.8091567171194886</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.8420016868147315</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.7929064947029019</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F114" t="n">
+        <v>240</v>
+      </c>
+      <c r="G114" t="n">
+        <v>24646</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.8095025561957315</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.8346606268722145</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7780819417830094</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.8244803695150116</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.7902687673772011</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.829539265875177</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.784128005885328</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>300</v>
+      </c>
+      <c r="G115" t="n">
+        <v>24270</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.827029254223321</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.8415420697742597</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.808394504046678</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.8493860038467229</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.7989211309523809</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.8454458434577719</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.8036298998970904</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>200</v>
+      </c>
+      <c r="E116" t="n">
+        <v>300</v>
+      </c>
+      <c r="F116" t="n">
+        <v>30</v>
+      </c>
+      <c r="G116" t="n">
+        <v>26195</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.8272952853598015</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.8395532741398446</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.8122930639273283</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.8455358390387033</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.8053194175574446</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.8425339366515837</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.8087912087912089</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>600</v>
+      </c>
+      <c r="F117" t="n">
+        <v>60</v>
+      </c>
+      <c r="G117" t="n">
+        <v>26126</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.8039118119880578</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7705975166357961</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.8459606892371634</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.8632800491853674</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.7450053378069239</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.8143100511073254</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.7922799335036289</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F118" t="n">
+        <v>120</v>
+      </c>
+      <c r="G118" t="n">
+        <v>25566</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.8312993819917077</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.8150723814930457</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.8512288652605892</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.8706132039718032</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.7893801018346399</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.841927799157046</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.8191386757244098</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F119" t="n">
+        <v>180</v>
+      </c>
+      <c r="G119" t="n">
+        <v>24862</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.8150189043520232</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.8027793778801844</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.8305084745762712</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.8570220616496271</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.7689192609465958</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.8290143882217348</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.798528058877645</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F120" t="n">
+        <v>240</v>
+      </c>
+      <c r="G120" t="n">
+        <v>24579</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.8238333536759022</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8170080784766302</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.8326644890340644</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.8633384146341463</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.7786019722488874</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.8395345389860659</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.8047262559754668</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>60-10-30</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>300</v>
+      </c>
+      <c r="G121" t="n">
+        <v>24009</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.8292307051522346</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.8167562394169182</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.8454824477268368</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.8731995277449823</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.7798124557678697</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.8440353012781497</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20</v>
+      </c>
+      <c r="E122" t="n">
+        <v>300</v>
+      </c>
+      <c r="F122" t="n">
+        <v>30</v>
+      </c>
+      <c r="G122" t="n">
+        <v>39459</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.7660102891609012</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.7755395683453238</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.7545495143463213</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.7916706149909978</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.7365008445485751</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.7835220745117348</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.745415942868172</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20</v>
+      </c>
+      <c r="E123" t="n">
+        <v>600</v>
+      </c>
+      <c r="F123" t="n">
+        <v>60</v>
+      </c>
+      <c r="G123" t="n">
+        <v>38934</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.7624698207222479</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.7796339746597841</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7417158420335905</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.7849381082868752</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.7357046375506529</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.7822770505697335</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.7386980108499096</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F124" t="n">
+        <v>120</v>
+      </c>
+      <c r="G124" t="n">
+        <v>38343</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.7435255457319458</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.7244146525679759</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.7671192959962702</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.7934029572950057</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.6927530129993158</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.7573409662932439</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.7280420353982301</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F125" t="n">
+        <v>180</v>
+      </c>
+      <c r="G125" t="n">
+        <v>37436</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.7624211988460305</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.7769948488677229</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.7446316289002254</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.7878683354686115</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.7322949480807374</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.782393814836563</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.7384117647058824</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F126" t="n">
+        <v>240</v>
+      </c>
+      <c r="G126" t="n">
+        <v>36953</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.7706546153221659</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.7951142631993696</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.7408252747912788</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.7890903758736986</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.747787074087547</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.7920908667173662</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.7442898953021754</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>300</v>
+      </c>
+      <c r="G127" t="n">
+        <v>36317</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.7771842387862433</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.791549016693912</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.7592064476131433</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.8044605548003826</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.7442567156922328</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.7979525593008738</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.751657255094525</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>50</v>
+      </c>
+      <c r="E128" t="n">
+        <v>300</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30</v>
+      </c>
+      <c r="G128" t="n">
+        <v>39247</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8040869365811399</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.8043958108298502</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.8037206193605881</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.8293627735812512</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.7760150578112396</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.8166885206818452</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.789624887137815</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>50</v>
+      </c>
+      <c r="E129" t="n">
+        <v>600</v>
+      </c>
+      <c r="F129" t="n">
+        <v>60</v>
+      </c>
+      <c r="G129" t="n">
+        <v>39160</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.7930796731358529</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.798933133685836</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.7860475574793412</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.81772030651341</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.7649343544857768</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.8082175569808999</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.7753472511020544</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>50</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F130" t="n">
+        <v>120</v>
+      </c>
+      <c r="G130" t="n">
+        <v>38446</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.8060656505228112</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.8001133572643113</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.8133611207595229</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.8401110890696291</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.7685154797068154</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.8196245403522353</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.7903026212172348</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>50</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F131" t="n">
+        <v>180</v>
+      </c>
+      <c r="G131" t="n">
+        <v>37963</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.8104996970734663</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8191927317465575</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.7995840760546643</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.8369349770364999</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.7788517189489524</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.8279688172557272</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.789081740354169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>50</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F132" t="n">
+        <v>240</v>
+      </c>
+      <c r="G132" t="n">
+        <v>36735</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.8149993194501157</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.8469098376686877</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.7749186267886753</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.8253597636519584</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.801193726585815</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.8359959457502774</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.7878371628371629</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>50</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>300</v>
+      </c>
+      <c r="G133" t="n">
+        <v>36380</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.8087685541506322</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.8047560069358435</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.8137696820006175</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.8434060228452752</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.7698014018691589</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.8236278362276588</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.7911751463304818</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>300</v>
+      </c>
+      <c r="F134" t="n">
+        <v>30</v>
+      </c>
+      <c r="G134" t="n">
+        <v>39212</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.8096501071100684</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8088179936006022</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.8106347438752785</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.8348227294803302</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.7818172054559124</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.8216146455714354</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.7959652288010497</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>600</v>
+      </c>
+      <c r="F135" t="n">
+        <v>60</v>
+      </c>
+      <c r="G135" t="n">
+        <v>39680</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.8314012096774194</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.8344032613279603</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.8279077376083755</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.8494490292419978</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.8111876903349896</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.8418589258698941</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.8194624352331606</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F136" t="n">
+        <v>120</v>
+      </c>
+      <c r="G136" t="n">
+        <v>38399</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.8172608661683898</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.8141285190301529</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.8210387222796737</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.8458378699396218</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.7855219040290221</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.8296803320468943</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.8028877215652126</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>100</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F137" t="n">
+        <v>180</v>
+      </c>
+      <c r="G137" t="n">
+        <v>37624</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.8204071869019774</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.8485391734095644</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.7862231380629967</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.8282727960650775</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.8103155339805825</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.8382835124332862</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.7980875541610638</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F138" t="n">
+        <v>240</v>
+      </c>
+      <c r="G138" t="n">
+        <v>36968</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.8258223328283921</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.8365706961151647</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.8127547350755214</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.8445229681978799</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.8035555555555556</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.8405280233796468</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.8081289668941268</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>100</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>300</v>
+      </c>
+      <c r="G139" t="n">
+        <v>36405</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.8367806619969784</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.8435195724253971</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.8283738733176935</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.8597730138713745</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.8092882991556092</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.8515687450039967</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.8187198730856061</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>300</v>
+      </c>
+      <c r="F140" t="n">
+        <v>30</v>
+      </c>
+      <c r="G140" t="n">
+        <v>39291</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.8155048229874526</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.7915511489121752</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.8438089950027763</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.8569030420185166</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.7740538888605919</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.8229316788392486</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.8074276757962968</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>200</v>
+      </c>
+      <c r="E141" t="n">
+        <v>600</v>
+      </c>
+      <c r="F141" t="n">
+        <v>60</v>
+      </c>
+      <c r="G141" t="n">
+        <v>39188</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.8276768398489334</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.8574358974358974</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.7916901567256737</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.8327070222302712</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.8211800479504122</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.844890552863082</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.8061655041763541</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>200</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F142" t="n">
+        <v>120</v>
+      </c>
+      <c r="G142" t="n">
+        <v>38348</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.8410347345363514</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.8311775414391108</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.85280988897791</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.8708964963357093</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.8087485075436883</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.8505735856456516</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.8301949860724235</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F143" t="n">
+        <v>180</v>
+      </c>
+      <c r="G143" t="n">
+        <v>37292</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.8308484393435589</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.855019305019305</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.8006275645667391</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.8428163653663178</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.8153883972468043</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.848873981792046</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.8079405675313603</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>200</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F144" t="n">
+        <v>240</v>
+      </c>
+      <c r="G144" t="n">
+        <v>36867</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.6223180622236688</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.7754148620370821</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.4295256771663194</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.6312244978806005</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.6029766001376462</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.6959294199860238</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.5016820556867797</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>70-30</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>dstip-dport</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>200</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>300</v>
+      </c>
+      <c r="G145" t="n">
+        <v>36013</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.8298669924749396</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.8379879954362816</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.8195408098902485</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.8551685734534777</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.7991266375545851</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.8464911181820459</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.8092049948618939</v>
       </c>
     </row>
   </sheetData>
